--- a/output/ursus/2020/sheets/year_2020.xlsx
+++ b/output/ursus/2020/sheets/year_2020.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,113 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>57.81612903225806</v>
+        <v>57.91523259976565</v>
       </c>
       <c r="C2" t="n">
-        <v>50.83548387096774</v>
+        <v>50.98618470292682</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>55.59310344827585</v>
+        <v>56.84480542045755</v>
       </c>
       <c r="C3" t="n">
-        <v>46.56551724137932</v>
+        <v>50.65574715831329</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.09999999999999</v>
+        <v>56.16976375035843</v>
       </c>
       <c r="C4" t="n">
-        <v>23.48387096774194</v>
+        <v>49.87828197357874</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7.786666666666666</v>
+        <v>36.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>6.716129032258064</v>
+        <v>53.66878882936543</v>
       </c>
       <c r="C6" t="n">
-        <v>1.332258064516129</v>
+        <v>45.84017344612658</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>11.09666666666667</v>
+        <v>54.52145193306328</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.17165158483741</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>53.18387096774193</v>
+        <v>54.60337920609257</v>
       </c>
       <c r="C8" t="n">
-        <v>43.28064516129032</v>
+        <v>47.22505690419932</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>54.4709677419355</v>
+        <v>54.05075417680132</v>
       </c>
       <c r="C9" t="n">
-        <v>46.38064516129033</v>
+        <v>47.31403916666818</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>54.54999999999999</v>
+        <v>52.24690867958025</v>
       </c>
       <c r="C10" t="n">
-        <v>46.73333333333334</v>
+        <v>46.45705186682263</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>53.89032258064518</v>
+        <v>53.19401632434726</v>
       </c>
       <c r="C11" t="n">
-        <v>45.44193548387096</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>51.91333333333332</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40.96333333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>53.00322580645161</v>
-      </c>
-      <c r="C13" t="n">
-        <v>44.48064516129033</v>
+        <v>46.81896676961109</v>
       </c>
     </row>
   </sheetData>
